--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cdh1-Itgae.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cdh1-Itgae.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cdh1</t>
+  </si>
+  <si>
+    <t>Itgae</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cdh1</t>
-  </si>
-  <si>
-    <t>Itgae</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.002166666666666667</v>
+        <v>0.7853443333333333</v>
       </c>
       <c r="H2">
-        <v>0.0065</v>
+        <v>2.356033</v>
       </c>
       <c r="I2">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="J2">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.03889633333333334</v>
+        <v>0.120317</v>
       </c>
       <c r="N2">
-        <v>0.116689</v>
+        <v>0.360951</v>
       </c>
       <c r="O2">
-        <v>0.006408585216213481</v>
+        <v>0.02048803912214147</v>
       </c>
       <c r="P2">
-        <v>0.006408585216213481</v>
+        <v>0.02048803912214147</v>
       </c>
       <c r="Q2">
-        <v>8.427538888888889E-05</v>
+        <v>0.09449027415366668</v>
       </c>
       <c r="R2">
-        <v>0.0007584785000000001</v>
+        <v>0.850412467383</v>
       </c>
       <c r="S2">
-        <v>7.452348541231619E-06</v>
+        <v>0.005237122612837983</v>
       </c>
       <c r="T2">
-        <v>7.452348541231617E-06</v>
+        <v>0.005237122612837983</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.002166666666666667</v>
+        <v>0.7853443333333333</v>
       </c>
       <c r="H3">
-        <v>0.0065</v>
+        <v>2.356033</v>
       </c>
       <c r="I3">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="J3">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.4228493333333334</v>
+        <v>0.03889633333333333</v>
       </c>
       <c r="N3">
-        <v>1.268548</v>
+        <v>0.116689</v>
       </c>
       <c r="O3">
-        <v>0.06966893159472767</v>
+        <v>0.006623416466843327</v>
       </c>
       <c r="P3">
-        <v>0.06966893159472767</v>
+        <v>0.006623416466843326</v>
       </c>
       <c r="Q3">
-        <v>0.0009161735555555556</v>
+        <v>0.03054701497077777</v>
       </c>
       <c r="R3">
-        <v>0.008245562</v>
+        <v>0.274923134737</v>
       </c>
       <c r="S3">
-        <v>8.10158784228358E-05</v>
+        <v>0.001693068035742944</v>
       </c>
       <c r="T3">
-        <v>8.101587842283578E-05</v>
+        <v>0.001693068035742944</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.002166666666666667</v>
+        <v>0.7853443333333333</v>
       </c>
       <c r="H4">
-        <v>0.0065</v>
+        <v>2.356033</v>
       </c>
       <c r="I4">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="J4">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.036573</v>
+        <v>0.4126773333333333</v>
       </c>
       <c r="N4">
-        <v>0.109719</v>
+        <v>1.238032</v>
       </c>
       <c r="O4">
-        <v>0.0060257913028454</v>
+        <v>0.07027227532397208</v>
       </c>
       <c r="P4">
-        <v>0.0060257913028454</v>
+        <v>0.07027227532397208</v>
       </c>
       <c r="Q4">
-        <v>7.92415E-05</v>
+        <v>0.3240938052284444</v>
       </c>
       <c r="R4">
-        <v>0.0007131735000000001</v>
+        <v>2.916844247056</v>
       </c>
       <c r="S4">
-        <v>7.007209159349999E-06</v>
+        <v>0.01796289630065309</v>
       </c>
       <c r="T4">
-        <v>7.007209159349997E-06</v>
+        <v>0.01796289630065309</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.7853443333333333</v>
+      </c>
+      <c r="H5">
+        <v>2.356033</v>
+      </c>
+      <c r="I5">
+        <v>0.2556185382903829</v>
+      </c>
+      <c r="J5">
+        <v>0.2556185382903829</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.002166666666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.0065</v>
-      </c>
-      <c r="I5">
-        <v>0.001162869539813164</v>
-      </c>
-      <c r="J5">
-        <v>0.001162869539813164</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
       <c r="M5">
-        <v>4.926665</v>
+        <v>0.036573</v>
       </c>
       <c r="N5">
-        <v>14.779995</v>
+        <v>0.109719</v>
       </c>
       <c r="O5">
-        <v>0.8117205345208988</v>
+        <v>0.006227790377204219</v>
       </c>
       <c r="P5">
-        <v>0.8117205345208988</v>
+        <v>0.006227790377204218</v>
       </c>
       <c r="Q5">
-        <v>0.01067444083333333</v>
+        <v>0.028722398303</v>
       </c>
       <c r="R5">
-        <v>0.09606996749999999</v>
+        <v>0.258501584727</v>
       </c>
       <c r="S5">
-        <v>0.0009439250844352134</v>
+        <v>0.001591938672999855</v>
       </c>
       <c r="T5">
-        <v>0.0009439250844352132</v>
+        <v>0.001591938672999855</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.002166666666666667</v>
+        <v>0.7853443333333333</v>
       </c>
       <c r="H6">
-        <v>0.0065</v>
+        <v>2.356033</v>
       </c>
       <c r="I6">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="J6">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,90 +809,90 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6444266666666666</v>
+        <v>5.018611</v>
       </c>
       <c r="N6">
-        <v>1.93328</v>
+        <v>15.055833</v>
       </c>
       <c r="O6">
-        <v>0.1061761573653146</v>
+        <v>0.8545882835078129</v>
       </c>
       <c r="P6">
-        <v>0.1061761573653146</v>
+        <v>0.8545882835078128</v>
       </c>
       <c r="Q6">
-        <v>0.001396257777777778</v>
+        <v>3.941337710054333</v>
       </c>
       <c r="R6">
-        <v>0.01256632</v>
+        <v>35.472039390489</v>
       </c>
       <c r="S6">
-        <v>0.0001234690192545335</v>
+        <v>0.2184486078703545</v>
       </c>
       <c r="T6">
-        <v>0.0001234690192545335</v>
+        <v>0.2184486078703545</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.3005456666666667</v>
+        <v>0.7853443333333333</v>
       </c>
       <c r="H7">
-        <v>0.901637</v>
+        <v>2.356033</v>
       </c>
       <c r="I7">
-        <v>0.1613055697336188</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="J7">
-        <v>0.1613055697336188</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.03889633333333334</v>
+        <v>0.2454736666666667</v>
       </c>
       <c r="N7">
-        <v>0.116689</v>
+        <v>0.736421</v>
       </c>
       <c r="O7">
-        <v>0.006408585216213481</v>
+        <v>0.04180019520202616</v>
       </c>
       <c r="P7">
-        <v>0.006408585216213481</v>
+        <v>0.04180019520202615</v>
       </c>
       <c r="Q7">
-        <v>0.01169012443255556</v>
+        <v>0.1927813530992222</v>
       </c>
       <c r="R7">
-        <v>0.105211119893</v>
+        <v>1.735032177893</v>
       </c>
       <c r="S7">
-        <v>0.001033740489487762</v>
+        <v>0.0106849047977946</v>
       </c>
       <c r="T7">
-        <v>0.001033740489487762</v>
+        <v>0.0106849047977946</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -915,46 +915,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.3005456666666667</v>
+        <v>0.1080146666666667</v>
       </c>
       <c r="H8">
-        <v>0.901637</v>
+        <v>0.324044</v>
       </c>
       <c r="I8">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="J8">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.4228493333333334</v>
+        <v>0.120317</v>
       </c>
       <c r="N8">
-        <v>1.268548</v>
+        <v>0.360951</v>
       </c>
       <c r="O8">
-        <v>0.06966893159472767</v>
+        <v>0.02048803912214147</v>
       </c>
       <c r="P8">
-        <v>0.06966893159472767</v>
+        <v>0.02048803912214147</v>
       </c>
       <c r="Q8">
-        <v>0.1270855347862222</v>
+        <v>0.01299600064933333</v>
       </c>
       <c r="R8">
-        <v>1.143769813076</v>
+        <v>0.116964005844</v>
       </c>
       <c r="S8">
-        <v>0.01123798670362006</v>
+        <v>0.0007203032215399662</v>
       </c>
       <c r="T8">
-        <v>0.01123798670362006</v>
+        <v>0.0007203032215399663</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,46 +977,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.3005456666666667</v>
+        <v>0.1080146666666667</v>
       </c>
       <c r="H9">
-        <v>0.901637</v>
+        <v>0.324044</v>
       </c>
       <c r="I9">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="J9">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.036573</v>
+        <v>0.03889633333333333</v>
       </c>
       <c r="N9">
-        <v>0.109719</v>
+        <v>0.116689</v>
       </c>
       <c r="O9">
-        <v>0.0060257913028454</v>
+        <v>0.006623416466843327</v>
       </c>
       <c r="P9">
-        <v>0.0060257913028454</v>
+        <v>0.006623416466843326</v>
       </c>
       <c r="Q9">
-        <v>0.010991856667</v>
+        <v>0.004201374479555555</v>
       </c>
       <c r="R9">
-        <v>0.09892671000300002</v>
+        <v>0.03781237031599999</v>
       </c>
       <c r="S9">
-        <v>0.0009719936992013623</v>
+        <v>0.0002328611435299448</v>
       </c>
       <c r="T9">
-        <v>0.0009719936992013621</v>
+        <v>0.0002328611435299448</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1039,16 +1039,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.3005456666666667</v>
+        <v>0.1080146666666667</v>
       </c>
       <c r="H10">
-        <v>0.901637</v>
+        <v>0.324044</v>
       </c>
       <c r="I10">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="J10">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.926665</v>
+        <v>0.4126773333333333</v>
       </c>
       <c r="N10">
-        <v>14.779995</v>
+        <v>1.238032</v>
       </c>
       <c r="O10">
-        <v>0.8117205345208988</v>
+        <v>0.07027227532397208</v>
       </c>
       <c r="P10">
-        <v>0.8117205345208988</v>
+        <v>0.07027227532397208</v>
       </c>
       <c r="Q10">
-        <v>1.480687816868333</v>
+        <v>0.04457520460088889</v>
       </c>
       <c r="R10">
-        <v>13.326190351815</v>
+        <v>0.401176841408</v>
       </c>
       <c r="S10">
-        <v>0.1309350432853711</v>
+        <v>0.002470580322452542</v>
       </c>
       <c r="T10">
-        <v>0.1309350432853711</v>
+        <v>0.002470580322452542</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1101,140 +1101,140 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.3005456666666667</v>
+        <v>0.1080146666666667</v>
       </c>
       <c r="H11">
-        <v>0.901637</v>
+        <v>0.324044</v>
       </c>
       <c r="I11">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="J11">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.6444266666666666</v>
+        <v>0.036573</v>
       </c>
       <c r="N11">
-        <v>1.93328</v>
+        <v>0.109719</v>
       </c>
       <c r="O11">
-        <v>0.1061761573653146</v>
+        <v>0.006227790377204219</v>
       </c>
       <c r="P11">
-        <v>0.1061761573653146</v>
+        <v>0.006227790377204218</v>
       </c>
       <c r="Q11">
-        <v>0.1936796421511111</v>
+        <v>0.003950420404</v>
       </c>
       <c r="R11">
-        <v>1.74311677936</v>
+        <v>0.035553783636</v>
       </c>
       <c r="S11">
-        <v>0.01712680555593844</v>
+        <v>0.0002189520161023063</v>
       </c>
       <c r="T11">
-        <v>0.01712680555593843</v>
+        <v>0.0002189520161023063</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1946053333333333</v>
+        <v>0.1080146666666667</v>
       </c>
       <c r="H12">
-        <v>0.583816</v>
+        <v>0.324044</v>
       </c>
       <c r="I12">
-        <v>0.1044464374239327</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="J12">
-        <v>0.1044464374239327</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.03889633333333334</v>
+        <v>5.018611</v>
       </c>
       <c r="N12">
-        <v>0.116689</v>
+        <v>15.055833</v>
       </c>
       <c r="O12">
-        <v>0.006408585216213481</v>
+        <v>0.8545882835078129</v>
       </c>
       <c r="P12">
-        <v>0.006408585216213481</v>
+        <v>0.8545882835078128</v>
       </c>
       <c r="Q12">
-        <v>0.007569433913777779</v>
+        <v>0.5420835942946667</v>
       </c>
       <c r="R12">
-        <v>0.06812490522400001</v>
+        <v>4.878752348652</v>
       </c>
       <c r="S12">
-        <v>0.0006693538947611813</v>
+        <v>0.03004497843992047</v>
       </c>
       <c r="T12">
-        <v>0.0006693538947611813</v>
+        <v>0.03004497843992048</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1946053333333333</v>
+        <v>0.1080146666666667</v>
       </c>
       <c r="H13">
-        <v>0.583816</v>
+        <v>0.324044</v>
       </c>
       <c r="I13">
-        <v>0.1044464374239327</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="J13">
-        <v>0.1044464374239327</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4228493333333334</v>
+        <v>0.2454736666666667</v>
       </c>
       <c r="N13">
-        <v>1.268548</v>
+        <v>0.736421</v>
       </c>
       <c r="O13">
-        <v>0.06966893159472767</v>
+        <v>0.04180019520202616</v>
       </c>
       <c r="P13">
-        <v>0.06966893159472767</v>
+        <v>0.04180019520202615</v>
       </c>
       <c r="Q13">
-        <v>0.08228873546311111</v>
+        <v>0.02651475628044444</v>
       </c>
       <c r="R13">
-        <v>0.740598619168</v>
+        <v>0.238632806524</v>
       </c>
       <c r="S13">
-        <v>0.007276671704200969</v>
+        <v>0.001469580133341322</v>
       </c>
       <c r="T13">
-        <v>0.007276671704200969</v>
+        <v>0.001469580133341322</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,14 +1272,14 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
       <c r="E14">
         <v>3</v>
       </c>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1946053333333333</v>
+        <v>1.739026666666666</v>
       </c>
       <c r="H14">
-        <v>0.583816</v>
+        <v>5.217079999999999</v>
       </c>
       <c r="I14">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="J14">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.036573</v>
+        <v>0.120317</v>
       </c>
       <c r="N14">
-        <v>0.109719</v>
+        <v>0.360951</v>
       </c>
       <c r="O14">
-        <v>0.0060257913028454</v>
+        <v>0.02048803912214147</v>
       </c>
       <c r="P14">
-        <v>0.0060257913028454</v>
+        <v>0.02048803912214147</v>
       </c>
       <c r="Q14">
-        <v>0.007117300856</v>
+        <v>0.2092344714533333</v>
       </c>
       <c r="R14">
-        <v>0.064055707704</v>
+        <v>1.88311024308</v>
       </c>
       <c r="S14">
-        <v>0.0006293724342423197</v>
+        <v>0.01159681873767676</v>
       </c>
       <c r="T14">
-        <v>0.0006293724342423196</v>
+        <v>0.01159681873767676</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,13 +1334,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1946053333333333</v>
+        <v>1.739026666666666</v>
       </c>
       <c r="H15">
-        <v>0.583816</v>
+        <v>5.217079999999999</v>
       </c>
       <c r="I15">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="J15">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>4.926665</v>
+        <v>0.03889633333333333</v>
       </c>
       <c r="N15">
-        <v>14.779995</v>
+        <v>0.116689</v>
       </c>
       <c r="O15">
-        <v>0.8117205345208988</v>
+        <v>0.006623416466843327</v>
       </c>
       <c r="P15">
-        <v>0.8117205345208988</v>
+        <v>0.006623416466843326</v>
       </c>
       <c r="Q15">
-        <v>0.9587552845466666</v>
+        <v>0.06764176090222221</v>
       </c>
       <c r="R15">
-        <v>8.628797560919999</v>
+        <v>0.6087758481199999</v>
       </c>
       <c r="S15">
-        <v>0.08478131801455824</v>
+        <v>0.003749044002318218</v>
       </c>
       <c r="T15">
-        <v>0.08478131801455822</v>
+        <v>0.003749044002318217</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1946053333333333</v>
+        <v>1.739026666666666</v>
       </c>
       <c r="H16">
-        <v>0.583816</v>
+        <v>5.217079999999999</v>
       </c>
       <c r="I16">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="J16">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,42 +1429,42 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6444266666666666</v>
+        <v>0.4126773333333333</v>
       </c>
       <c r="N16">
-        <v>1.93328</v>
+        <v>1.238032</v>
       </c>
       <c r="O16">
-        <v>0.1061761573653146</v>
+        <v>0.07027227532397208</v>
       </c>
       <c r="P16">
-        <v>0.1061761573653146</v>
+        <v>0.07027227532397208</v>
       </c>
       <c r="Q16">
-        <v>0.1254088662755555</v>
+        <v>0.7176568873955556</v>
       </c>
       <c r="R16">
-        <v>1.12867979648</v>
+        <v>6.45891198656</v>
       </c>
       <c r="S16">
-        <v>0.01108972137616996</v>
+        <v>0.0397761266638503</v>
       </c>
       <c r="T16">
-        <v>0.01108972137616996</v>
+        <v>0.0397761266638503</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,60 +1473,60 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.57216</v>
+        <v>1.739026666666666</v>
       </c>
       <c r="H17">
-        <v>1.71648</v>
+        <v>5.217079999999999</v>
       </c>
       <c r="I17">
-        <v>0.3070834319536154</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="J17">
-        <v>0.3070834319536154</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.03889633333333334</v>
+        <v>0.036573</v>
       </c>
       <c r="N17">
-        <v>0.116689</v>
+        <v>0.109719</v>
       </c>
       <c r="O17">
-        <v>0.006408585216213481</v>
+        <v>0.006227790377204219</v>
       </c>
       <c r="P17">
-        <v>0.006408585216213481</v>
+        <v>0.006227790377204218</v>
       </c>
       <c r="Q17">
-        <v>0.02225492608</v>
+        <v>0.06360142228</v>
       </c>
       <c r="R17">
-        <v>0.20029433472</v>
+        <v>0.5724128005199999</v>
       </c>
       <c r="S17">
-        <v>0.001967970342162038</v>
+        <v>0.00352510826976281</v>
       </c>
       <c r="T17">
-        <v>0.001967970342162038</v>
+        <v>0.00352510826976281</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.57216</v>
+        <v>1.739026666666666</v>
       </c>
       <c r="H18">
-        <v>1.71648</v>
+        <v>5.217079999999999</v>
       </c>
       <c r="I18">
-        <v>0.3070834319536154</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="J18">
-        <v>0.3070834319536154</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,43 +1553,43 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.4228493333333334</v>
+        <v>5.018611</v>
       </c>
       <c r="N18">
-        <v>1.268548</v>
+        <v>15.055833</v>
       </c>
       <c r="O18">
-        <v>0.06966893159472767</v>
+        <v>0.8545882835078129</v>
       </c>
       <c r="P18">
-        <v>0.06966893159472767</v>
+        <v>0.8545882835078128</v>
       </c>
       <c r="Q18">
-        <v>0.24193747456</v>
+        <v>8.727498358626665</v>
       </c>
       <c r="R18">
-        <v>2.17743727104</v>
+        <v>78.54748522763998</v>
       </c>
       <c r="S18">
-        <v>0.02139417461465064</v>
+        <v>0.4837215196681324</v>
       </c>
       <c r="T18">
-        <v>0.02139417461465064</v>
+        <v>0.4837215196681323</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
         <v>3</v>
       </c>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.57216</v>
+        <v>1.739026666666666</v>
       </c>
       <c r="H19">
-        <v>1.71648</v>
+        <v>5.217079999999999</v>
       </c>
       <c r="I19">
-        <v>0.3070834319536154</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="J19">
-        <v>0.3070834319536154</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.036573</v>
+        <v>0.2454736666666667</v>
       </c>
       <c r="N19">
-        <v>0.109719</v>
+        <v>0.736421</v>
       </c>
       <c r="O19">
-        <v>0.0060257913028454</v>
+        <v>0.04180019520202616</v>
       </c>
       <c r="P19">
-        <v>0.0060257913028454</v>
+        <v>0.04180019520202615</v>
       </c>
       <c r="Q19">
-        <v>0.02092560768</v>
+        <v>0.4268852522977777</v>
       </c>
       <c r="R19">
-        <v>0.18833046912</v>
+        <v>3.841967270679999</v>
       </c>
       <c r="S19">
-        <v>0.001850420673514013</v>
+        <v>0.02366011134923758</v>
       </c>
       <c r="T19">
-        <v>0.001850420673514013</v>
+        <v>0.02366011134923758</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,14 +1644,14 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>26</v>
       </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
       <c r="E20">
         <v>3</v>
       </c>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.57216</v>
+        <v>0.4399436666666667</v>
       </c>
       <c r="H20">
-        <v>1.71648</v>
+        <v>1.319831</v>
       </c>
       <c r="I20">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="J20">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>4.926665</v>
+        <v>0.120317</v>
       </c>
       <c r="N20">
-        <v>14.779995</v>
+        <v>0.360951</v>
       </c>
       <c r="O20">
-        <v>0.8117205345208988</v>
+        <v>0.02048803912214147</v>
       </c>
       <c r="P20">
-        <v>0.8117205345208988</v>
+        <v>0.02048803912214147</v>
       </c>
       <c r="Q20">
-        <v>2.8188406464</v>
+        <v>0.05293270214233334</v>
       </c>
       <c r="R20">
-        <v>25.3695658176</v>
+        <v>0.476394319281</v>
       </c>
       <c r="S20">
-        <v>0.2492659275279007</v>
+        <v>0.002933794550086763</v>
       </c>
       <c r="T20">
-        <v>0.2492659275279007</v>
+        <v>0.002933794550086764</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,13 +1706,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,264 +1721,264 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.57216</v>
+        <v>0.4399436666666667</v>
       </c>
       <c r="H21">
-        <v>1.71648</v>
+        <v>1.319831</v>
       </c>
       <c r="I21">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="J21">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.6444266666666666</v>
+        <v>0.03889633333333333</v>
       </c>
       <c r="N21">
-        <v>1.93328</v>
+        <v>0.116689</v>
       </c>
       <c r="O21">
-        <v>0.1061761573653146</v>
+        <v>0.006623416466843327</v>
       </c>
       <c r="P21">
-        <v>0.1061761573653146</v>
+        <v>0.006623416466843326</v>
       </c>
       <c r="Q21">
-        <v>0.3687151616</v>
+        <v>0.01711219550655555</v>
       </c>
       <c r="R21">
-        <v>3.3184364544</v>
+        <v>0.154009759559</v>
       </c>
       <c r="S21">
-        <v>0.03260493879538795</v>
+        <v>0.0009484432852522207</v>
       </c>
       <c r="T21">
-        <v>0.03260493879538795</v>
+        <v>0.0009484432852522207</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.7937293333333334</v>
+        <v>0.4399436666666667</v>
       </c>
       <c r="H22">
-        <v>2.381188</v>
+        <v>1.319831</v>
       </c>
       <c r="I22">
-        <v>0.4260016913490199</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="J22">
-        <v>0.4260016913490199</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.03889633333333334</v>
+        <v>0.4126773333333333</v>
       </c>
       <c r="N22">
-        <v>0.116689</v>
+        <v>1.238032</v>
       </c>
       <c r="O22">
-        <v>0.006408585216213481</v>
+        <v>0.07027227532397208</v>
       </c>
       <c r="P22">
-        <v>0.006408585216213481</v>
+        <v>0.07027227532397208</v>
       </c>
       <c r="Q22">
-        <v>0.03087316072577779</v>
+        <v>0.1815547791768889</v>
       </c>
       <c r="R22">
-        <v>0.2778584465320001</v>
+        <v>1.633993012592</v>
       </c>
       <c r="S22">
-        <v>0.002730068141261267</v>
+        <v>0.01006267203701615</v>
       </c>
       <c r="T22">
-        <v>0.002730068141261267</v>
+        <v>0.01006267203701615</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.7937293333333334</v>
+        <v>0.4399436666666667</v>
       </c>
       <c r="H23">
-        <v>2.381188</v>
+        <v>1.319831</v>
       </c>
       <c r="I23">
-        <v>0.4260016913490199</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="J23">
-        <v>0.4260016913490199</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>0.4228493333333334</v>
+        <v>0.036573</v>
       </c>
       <c r="N23">
-        <v>1.268548</v>
+        <v>0.109719</v>
       </c>
       <c r="O23">
-        <v>0.06966893159472767</v>
+        <v>0.006227790377204219</v>
       </c>
       <c r="P23">
-        <v>0.06966893159472767</v>
+        <v>0.006227790377204218</v>
       </c>
       <c r="Q23">
-        <v>0.3356279194471112</v>
+        <v>0.016090059721</v>
       </c>
       <c r="R23">
-        <v>3.020651275024</v>
+        <v>0.144810537489</v>
       </c>
       <c r="S23">
-        <v>0.02967908269383316</v>
+        <v>0.0008917914183392472</v>
       </c>
       <c r="T23">
-        <v>0.02967908269383316</v>
+        <v>0.0008917914183392472</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.7937293333333334</v>
+        <v>0.4399436666666667</v>
       </c>
       <c r="H24">
-        <v>2.381188</v>
+        <v>1.319831</v>
       </c>
       <c r="I24">
-        <v>0.4260016913490199</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="J24">
-        <v>0.4260016913490199</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.036573</v>
+        <v>5.018611</v>
       </c>
       <c r="N24">
-        <v>0.109719</v>
+        <v>15.055833</v>
       </c>
       <c r="O24">
-        <v>0.0060257913028454</v>
+        <v>0.8545882835078129</v>
       </c>
       <c r="P24">
-        <v>0.0060257913028454</v>
+        <v>0.8545882835078128</v>
       </c>
       <c r="Q24">
-        <v>0.029029062908</v>
+        <v>2.207906124913667</v>
       </c>
       <c r="R24">
-        <v>0.2612615661720001</v>
+        <v>19.871155124223</v>
       </c>
       <c r="S24">
-        <v>0.002566997286728355</v>
+        <v>0.1223731775294055</v>
       </c>
       <c r="T24">
-        <v>0.002566997286728354</v>
+        <v>0.1223731775294055</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.7937293333333334</v>
+        <v>0.4399436666666667</v>
       </c>
       <c r="H25">
-        <v>2.381188</v>
+        <v>1.319831</v>
       </c>
       <c r="I25">
-        <v>0.4260016913490199</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="J25">
-        <v>0.4260016913490199</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,90 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.926665</v>
+        <v>0.2454736666666667</v>
       </c>
       <c r="N25">
-        <v>14.779995</v>
+        <v>0.736421</v>
       </c>
       <c r="O25">
-        <v>0.8117205345208988</v>
+        <v>0.04180019520202616</v>
       </c>
       <c r="P25">
-        <v>0.8117205345208988</v>
+        <v>0.04180019520202615</v>
       </c>
       <c r="Q25">
-        <v>3.910438526006667</v>
+        <v>0.1079945849834445</v>
       </c>
       <c r="R25">
-        <v>35.19394673406001</v>
+        <v>0.9719512648509999</v>
       </c>
       <c r="S25">
-        <v>0.3457943206086334</v>
+        <v>0.005985598921652647</v>
       </c>
       <c r="T25">
-        <v>0.3457943206086334</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.7937293333333334</v>
-      </c>
-      <c r="H26">
-        <v>2.381188</v>
-      </c>
-      <c r="I26">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="J26">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.6444266666666666</v>
-      </c>
-      <c r="N26">
-        <v>1.93328</v>
-      </c>
-      <c r="O26">
-        <v>0.1061761573653146</v>
-      </c>
-      <c r="P26">
-        <v>0.1061761573653146</v>
-      </c>
-      <c r="Q26">
-        <v>0.5115003485155556</v>
-      </c>
-      <c r="R26">
-        <v>4.603503136640001</v>
-      </c>
-      <c r="S26">
-        <v>0.04523122261856372</v>
-      </c>
-      <c r="T26">
-        <v>0.04523122261856372</v>
+        <v>0.005985598921652647</v>
       </c>
     </row>
   </sheetData>
